--- a/data/test_inputs/preprocessing/performance_format/performance_values_90_PLA.xlsx
+++ b/data/test_inputs/preprocessing/performance_format/performance_values_90_PLA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/performance_format/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/test_inputs/preprocessing/performance_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A338ED9D-DD30-1A47-8248-02F9A5EFC998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484DB187-456F-A942-8290-6B6F6FFA1A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="1020" windowWidth="19180" windowHeight="17400" activeTab="1" xr2:uid="{968F1003-936B-E54A-97BA-F1A20154874A}"/>
   </bookViews>
@@ -40,15 +40,6 @@
     <t>PLA_recycled_industrial</t>
   </si>
   <si>
-    <t>e_modulus</t>
-  </si>
-  <si>
-    <t>tensile_strain_at_break</t>
-  </si>
-  <si>
-    <t>tensile_yield_strength</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -56,6 +47,15 @@
   </si>
   <si>
     <t>Inversion</t>
+  </si>
+  <si>
+    <t>e_modulus_90</t>
+  </si>
+  <si>
+    <t>tensile_strain_at_break_90</t>
+  </si>
+  <si>
+    <t>tensile_yield_strength_90</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5">
         <v>2724</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>1.9</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <v>40</v>
@@ -543,28 +543,31 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -578,7 +581,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -592,7 +595,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
